--- a/Labs/Lab_2.1.2-2.1.3/data.xlsx
+++ b/Labs/Lab_2.1.2-2.1.3/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvv20\OneDrive\Документы\MIPT\Labs\Lab_2.1.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvv20\Documents\MIPT\Labs\Lab_2.1.2-2.1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,12 +27,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="15">
   <si>
     <t>2..1..2</t>
-  </si>
-  <si>
-    <t>h_1</t>
-  </si>
-  <si>
-    <t>h_2</t>
   </si>
   <si>
     <t xml:space="preserve">1) </t>
@@ -70,11 +64,20 @@
   <si>
     <t>Г_3</t>
   </si>
+  <si>
+    <t>h_слева</t>
+  </si>
+  <si>
+    <t>h_справа</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,12 +375,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -385,7 +382,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -394,32 +406,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,6 +439,1080 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$O$2:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$P$2:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.4054054054054055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3877551020408161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3877551020408161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4034090909090908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D27-48AA-A194-F90BEFD4310B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$Q$2:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$R$2:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3690476190476193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2903225806451615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3902439024390247</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2747252747252746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D27-48AA-A194-F90BEFD4310B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="593924016"/>
+        <c:axId val="593920272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="593924016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593920272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="593920272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593924016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>21431</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>26193</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="358624" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9405938" y="4371975"/>
+          <a:ext cx="358624" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>t,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+            <a:t>с</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08594</cdr:x>
+      <cdr:y>0.03385</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28594</cdr:x>
+      <cdr:y>0.36719</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="392907" y="92870"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.07031</cdr:x>
+      <cdr:y>0.02344</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.27031</cdr:x>
+      <cdr:y>0.35677</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="321470" y="64294"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" b="1"/>
+            <a:t>Гамма</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -701,61 +1778,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="26" t="s">
+      <c r="O2">
+        <v>0.5</v>
+      </c>
+      <c r="P2">
+        <v>1.4054054054054055</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>1.3690476190476193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B3" s="7"/>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="D3" s="18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B3" s="9"/>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>2</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>4</v>
       </c>
       <c r="J3" s="5">
         <f xml:space="preserve"> C5-D5</f>
@@ -767,30 +1856,42 @@
       </c>
       <c r="L3" s="28">
         <f>J3:J3/(J3-J4)</f>
-        <v>1.2093023255813953</v>
+        <v>1.4054054054054055</v>
       </c>
       <c r="M3" s="28">
         <f>K3/(K3-K4)</f>
         <v>1.3690476190476193</v>
       </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+      <c r="P3">
+        <v>1.3877551020408161</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>1.2903225806451615</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="21" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="10"/>
-      <c r="I4" s="27" t="s">
-        <v>5</v>
       </c>
       <c r="J4" s="5">
         <f>C7-D7</f>
-        <v>1.7999999999999989</v>
+        <v>3</v>
       </c>
       <c r="K4" s="5">
         <f>F7-G7</f>
@@ -798,28 +1899,40 @@
       </c>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
+      <c r="O4">
+        <v>0.5</v>
+      </c>
+      <c r="P4">
+        <v>1.3877551020408161</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>1.3902439024390247</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
-        <v>4</v>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>20.2</v>
-      </c>
-      <c r="D5" s="23">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>4</v>
+        <v>18.2</v>
+      </c>
+      <c r="D5" s="18">
+        <v>7.8</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="F5" s="4">
         <v>20.7</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I5" s="26" t="s">
-        <v>4</v>
+      <c r="I5" s="20" t="s">
+        <v>2</v>
       </c>
       <c r="J5" s="2">
         <f>C9-D9</f>
@@ -830,31 +1943,43 @@
         <v>12</v>
       </c>
       <c r="L5" s="30">
-        <f t="shared" ref="L5:L10" si="0">J5:J5/(J5-J6)</f>
+        <f t="shared" ref="L5" si="0">J5:J5/(J5-J6)</f>
         <v>1.3877551020408161</v>
       </c>
       <c r="M5" s="30">
-        <f t="shared" ref="M5:M10" si="1">K5/(K5-K6)</f>
+        <f t="shared" ref="M5" si="1">K5/(K5-K6)</f>
         <v>1.2903225806451615</v>
       </c>
+      <c r="O5">
+        <v>0.5</v>
+      </c>
+      <c r="P5">
+        <v>1.4034090909090908</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>1.2747252747252746</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="I6" s="26" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>5</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="I6" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="J6" s="2">
         <f>C11-D11</f>
@@ -867,27 +1992,27 @@
       <c r="L6" s="31"/>
       <c r="M6" s="31"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B7" s="9" t="s">
-        <v>5</v>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B7" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D7" s="23">
-        <v>14.6</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>5</v>
+        <v>16.8</v>
+      </c>
+      <c r="D7" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>3</v>
       </c>
       <c r="F7" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <v>13.5</v>
       </c>
-      <c r="I7" s="27" t="s">
-        <v>4</v>
+      <c r="I7" s="21" t="s">
+        <v>2</v>
       </c>
       <c r="J7" s="5">
         <f>C13-D13</f>
@@ -898,27 +2023,27 @@
         <v>11.399999999999999</v>
       </c>
       <c r="L7" s="28">
-        <f t="shared" ref="L7:L10" si="2">J7:J7/(J7-J8)</f>
+        <f t="shared" ref="L7" si="2">J7:J7/(J7-J8)</f>
         <v>1.4029850746268655</v>
       </c>
       <c r="M7" s="28">
-        <f t="shared" ref="M7:M10" si="3">K7/(K7-K8)</f>
+        <f t="shared" ref="M7" si="3">K7/(K7-K8)</f>
         <v>1.3902439024390247</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B8" s="11" t="s">
-        <v>8</v>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B8" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="21" t="s">
-        <v>8</v>
+      <c r="D8" s="18"/>
+      <c r="E8" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="10"/>
-      <c r="I8" s="27" t="s">
-        <v>5</v>
+      <c r="G8" s="8"/>
+      <c r="I8" s="21" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="5">
         <f>C15-D15</f>
@@ -931,27 +2056,27 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B9" s="9" t="s">
-        <v>4</v>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B9" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C9" s="3">
         <v>21.8</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>4</v>
+      <c r="E9" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="F9" s="4">
         <v>21</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <v>9</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>4</v>
+      <c r="I9" s="20" t="s">
+        <v>2</v>
       </c>
       <c r="J9" s="2">
         <f>C17-D17</f>
@@ -962,31 +2087,31 @@
         <v>11.600000000000001</v>
       </c>
       <c r="L9" s="30">
-        <f t="shared" ref="L9:L10" si="4">J9:J9/(J9-J10)</f>
+        <f t="shared" ref="L9" si="4">J9:J9/(J9-J10)</f>
         <v>1.4034090909090908</v>
       </c>
       <c r="M9" s="30">
-        <f t="shared" ref="M9:M10" si="5">K9/(K9-K10)</f>
+        <f t="shared" ref="M9" si="5">K9/(K9-K10)</f>
         <v>1.2747252747252746</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="I10" s="26" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>5</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="I10" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="J10" s="2">
         <f>C19-D19</f>
@@ -999,164 +2124,177 @@
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="9" t="s">
-        <v>5</v>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B11" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C11" s="3">
         <v>16.899999999999999</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="18">
         <v>13.1</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>5</v>
+      <c r="E11" s="15" t="s">
+        <v>3</v>
       </c>
       <c r="F11" s="4">
         <v>16.3</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <v>13.6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="11" t="s">
-        <v>10</v>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B12" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="21" t="s">
-        <v>10</v>
+      <c r="D12" s="18"/>
+      <c r="E12" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B13" s="9" t="s">
-        <v>4</v>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B13" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C13" s="3">
         <v>24.4</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="18">
         <v>5.6</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>4</v>
+      <c r="E13" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="F13" s="4">
         <v>20.7</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="8">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="18"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B15" s="9" t="s">
-        <v>5</v>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B15" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C15" s="3">
         <v>17.7</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="18">
         <v>12.3</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>5</v>
+      <c r="E15" s="15" t="s">
+        <v>3</v>
       </c>
       <c r="F15" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="8">
         <v>13.4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="11" t="s">
-        <v>9</v>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B16" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="21" t="s">
-        <v>9</v>
+      <c r="D16" s="18"/>
+      <c r="E16" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="9" t="s">
-        <v>4</v>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B17" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C17" s="3">
         <v>27.7</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="18">
         <v>3</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>4</v>
+      <c r="E17" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="F17" s="4">
         <v>20.8</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="8">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="18"/>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="13">
+    <row r="19" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="11">
         <v>18.5</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="19">
         <v>11.4</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="14">
+      <c r="E19" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="12">
         <v>16.2</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="13">
         <v>13.7</v>
       </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="Q21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="L3:L4"/>
@@ -1165,18 +2303,9 @@
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>